--- a/109下/109下 Excel/Excel 第二次上課/Ch03-01(SUMPRODUCT).xlsx
+++ b/109下/109下 Excel/Excel 第二次上課/Ch03-01(SUMPRODUCT).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Downloads\00 國立空中大學\109下\109下 Excel\Excel 第二次上課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Documents\GitHub\NationalOpenUniversity\109下\109下 Excel\Excel 第二次上課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B85B68-F30E-4918-89D3-EDEC07404BAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132BC0DF-2E11-41EC-B2FE-70A60C0000DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8004" yWindow="1668" windowWidth="16776" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="1956" windowWidth="15588" windowHeight="13524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -196,11 +196,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="&quot;NT$&quot;#,##0_);[Red]\(&quot;NT$&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;NT$&quot;#,##0_);[Red]\(&quot;NT$&quot;#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -442,16 +443,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,20 +811,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" thickTop="1">
       <c r="A3" s="4" t="s">
@@ -865,7 +866,7 @@
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="21">
         <f>C5*D5</f>
         <v>4200</v>
       </c>
@@ -883,7 +884,7 @@
       <c r="D6">
         <v>23</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="21">
         <f t="shared" ref="E6:E18" si="0">C6*D6</f>
         <v>8050</v>
       </c>
@@ -901,7 +902,7 @@
       <c r="D7">
         <v>33</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -919,7 +920,7 @@
       <c r="D8">
         <v>44</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>18480</v>
       </c>
@@ -937,7 +938,7 @@
       <c r="D9">
         <v>55</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>19250</v>
       </c>
@@ -955,7 +956,7 @@
       <c r="D10">
         <v>66</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>29700</v>
       </c>
@@ -973,7 +974,7 @@
       <c r="D11">
         <v>56</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
@@ -991,7 +992,7 @@
       <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
@@ -1009,7 +1010,7 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
@@ -1027,7 +1028,7 @@
       <c r="D14">
         <v>34</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>15300</v>
       </c>
@@ -1045,7 +1046,7 @@
       <c r="D15">
         <v>34</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>15300</v>
       </c>
@@ -1063,7 +1064,7 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="21">
         <f t="shared" si="0"/>
         <v>3040</v>
       </c>
@@ -1081,7 +1082,7 @@
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
@@ -1099,7 +1100,7 @@
       <c r="D18">
         <v>6</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="21">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
@@ -1111,11 +1112,11 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <f>SUM(E5:E18)</f>
         <v>162100</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="19">
         <f>SUMPRODUCT(C5:C18,D5:D18)</f>
         <v>162100</v>
       </c>
